--- a/進捗/10月学習計画書_張天宇.xlsx
+++ b/進捗/10月学習計画書_張天宇.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84648\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D5278-EF74-48E0-A429-2BE0ECFFC6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4356243B-AB6C-4681-B763-B8767993C1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,100 @@
     <rPh sb="0" eb="1">
       <t>おぎな</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>補う：Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程　3</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,11 +786,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,7 +1110,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -1028,16 +1122,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="11"/>
@@ -1099,7 +1193,7 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
@@ -1139,7 +1233,7 @@
       <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1166,8 +1260,12 @@
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">

--- a/進捗/10月学習計画書_張天宇.xlsx
+++ b/進捗/10月学習計画書_張天宇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84648\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4356243B-AB6C-4681-B763-B8767993C1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5DCC4-04EA-48AA-ABF3-3EDED4533976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,90 +109,6 @@
   </si>
   <si>
     <t>発表会を行う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【尚硅谷】React教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【尚硅谷】React教程　21-30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【尚硅谷】React教程　31-40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【尚硅谷】React教程　4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,202 +139,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【尚硅谷】NodeJS全套教程　1-10・練習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【尚硅谷】NodeJS全套教程　11-20・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API作成(crud)</t>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>础</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>实战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教程</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,6 +334,570 @@
         <scheme val="minor"/>
       </rPr>
       <t>教程　3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程 4-12</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程13-16</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程27-33</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程17-21</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程22-26</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教程34-39</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,7 +909,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,13 +938,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -668,13 +950,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -733,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,13 +1049,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1109,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -1144,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1231,13 +1506,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1258,13 +1533,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1287,7 +1562,9 @@
       <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1308,9 +1585,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1321,13 +1600,21 @@
         <f t="shared" si="0"/>
         <v>日曜日</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1348,9 +1635,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1371,9 +1660,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1394,7 +1685,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1416,9 +1707,7 @@
       <c r="E14" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
@@ -1439,9 +1728,7 @@
       <c r="E15" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
@@ -1493,7 +1780,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1516,7 +1803,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1539,7 +1826,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1808,12 +2095,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/進捗/10月学習計画書_張天宇.xlsx
+++ b/進捗/10月学習計画書_張天宇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84648\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5DCC4-04EA-48AA-ABF3-3EDED4533976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B4096-D3AD-4397-8C43-EF4A9B98D36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,39 +96,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詳細設計作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>プログラム作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>単体試験・結合試験</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>発表会を行う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -898,6 +870,194 @@
         <scheme val="minor"/>
       </rPr>
       <t>教程34-39</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程从零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1-19</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程从零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20-36</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1385,7 +1545,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
@@ -1419,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1506,13 +1666,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1533,13 +1693,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1560,7 +1720,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
@@ -1585,7 +1745,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
@@ -1610,7 +1770,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G10" s="16">
         <v>1</v>
@@ -1635,7 +1795,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
@@ -1660,7 +1820,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -1685,9 +1845,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1707,8 +1869,12 @@
       <c r="E14" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1728,8 +1894,12 @@
       <c r="E15" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1779,9 +1949,7 @@
       <c r="E18" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
@@ -1802,9 +1970,7 @@
       <c r="E19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
@@ -1825,9 +1991,7 @@
       <c r="E20" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
@@ -1848,9 +2012,7 @@
       <c r="E21" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
@@ -1871,9 +2033,7 @@
       <c r="E22" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
@@ -1924,9 +2084,7 @@
       <c r="E25" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
@@ -1947,9 +2105,7 @@
       <c r="E26" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
@@ -1970,9 +2126,7 @@
       <c r="E27" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
@@ -1993,9 +2147,7 @@
       <c r="E28" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
@@ -2016,9 +2168,7 @@
       <c r="E29" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
@@ -2095,12 +2245,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/進捗/10月学習計画書_張天宇.xlsx
+++ b/進捗/10月学習計画書_張天宇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84648\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B4096-D3AD-4397-8C43-EF4A9B98D36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD0C46-3BA5-4CFF-B4B2-DAE7403F292B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1058,6 +1058,288 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 20-36</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程从零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 37-49</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程从零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 49-60</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程从零基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 61-63</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1949,8 +2231,12 @@
       <c r="E18" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1970,8 +2256,12 @@
       <c r="E19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -1991,8 +2281,12 @@
       <c r="E20" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
